--- a/HOMEBASE LABS ADDRESING TABLE.xlsx
+++ b/HOMEBASE LABS ADDRESING TABLE.xlsx
@@ -161,7 +161,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Louis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Run OSPF between the L3 and HB_R001</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="161">
   <si>
     <t xml:space="preserve">Device </t>
   </si>
@@ -484,19 +508,7 @@
     <t>vlan22&amp;33</t>
   </si>
   <si>
-    <t>G1/0/14-15</t>
-  </si>
-  <si>
-    <t>G1/0/25-39</t>
-  </si>
-  <si>
-    <t>G1/0/40-47</t>
-  </si>
-  <si>
     <t>G1/0/12-13</t>
-  </si>
-  <si>
-    <t>vlan99</t>
   </si>
   <si>
     <t>G1/0/1-4</t>
@@ -677,6 +689,48 @@
   </si>
   <si>
     <t>172.16.99.1</t>
+  </si>
+  <si>
+    <t>10.16.255.4</t>
+  </si>
+  <si>
+    <t>Gig 1/0/2</t>
+  </si>
+  <si>
+    <t>Transit VRRP</t>
+  </si>
+  <si>
+    <t>G1/0/1-2</t>
+  </si>
+  <si>
+    <t>vlan 255</t>
+  </si>
+  <si>
+    <t>G1/0/3-4</t>
+  </si>
+  <si>
+    <t>vlan 99</t>
+  </si>
+  <si>
+    <t>Vlan 55</t>
+  </si>
+  <si>
+    <t>vlan</t>
+  </si>
+  <si>
+    <t>G1/0/39-42</t>
+  </si>
+  <si>
+    <t>vlan 11</t>
+  </si>
+  <si>
+    <t>G1/0/14-24</t>
+  </si>
+  <si>
+    <t>G1/0/26-38</t>
+  </si>
+  <si>
+    <t>G1/0/43-48</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -993,79 +1047,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -1079,6 +1060,90 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,17 +1153,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,11 +1439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1520,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>70</v>
@@ -1490,11 +1549,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>89</v>
@@ -1520,11 +1579,11 @@
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>89</v>
@@ -1634,14 +1693,16 @@
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="63">
+        <v>255</v>
+      </c>
       <c r="D8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="63" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="15"/>
@@ -1656,7 +1717,7 @@
         <v>88</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>70</v>
@@ -1668,79 +1729,69 @@
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15">
-        <v>99</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C9" s="64"/>
       <c r="D9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="15">
-        <v>99</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>56</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" s="15">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>47</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="15">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1748,37 +1799,41 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" s="15">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="15">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1786,190 +1841,199 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="15">
+        <v>33</v>
+      </c>
       <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="15">
+        <v>33</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>133</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="34" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="34" t="s">
+      <c r="I18" s="40"/>
+      <c r="J18" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>11</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="13" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="28"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="36"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -1977,30 +2041,28 @@
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="D20" s="42"/>
       <c r="E20" s="13" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="28"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="36"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -2008,26 +2070,30 @@
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="42"/>
       <c r="E21" s="13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="36"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -2035,28 +2101,26 @@
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
+        <v>44</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="28"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -2064,24 +2128,28 @@
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="D23" s="42"/>
       <c r="E23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="J23" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="36"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -2089,22 +2157,20 @@
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D24" s="43"/>
       <c r="E24" s="13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="32"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -2115,23 +2181,23 @@
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>73</v>
+      <c r="A25" s="13">
+        <v>99</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -2141,316 +2207,338 @@
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>255</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="29" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29" t="s">
+      <c r="I30" s="38"/>
+      <c r="J30" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29" t="s">
+      <c r="K30" s="38"/>
+      <c r="L30" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="19">
-        <v>99</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:15" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="19">
-        <v>99</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:15" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B31" s="19">
         <v>99</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="56"/>
+      <c r="L31" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="56"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:15" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="19">
         <v>99</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="44" t="s">
+        <v>56</v>
+      </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="43"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="M32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J32" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:15" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B33" s="19">
         <v>99</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="43"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="18" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="L33" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:15" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B34" s="19">
         <v>99</v>
       </c>
       <c r="C34" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="19">
+        <v>99</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="19">
+        <v>99</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="18" t="s">
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:15" s="56" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-    </row>
-    <row r="39" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-    </row>
-    <row r="40" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="21" t="s">
-        <v>135</v>
-      </c>
+      <c r="E40" s="21"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>111</v>
+      </c>
       <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="29" t="s">
+        <v>112</v>
+      </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
     </row>
-    <row r="41" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+    <row r="41" spans="1:14" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B41" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="21">
-        <v>11</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="H41" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
@@ -2458,20 +2546,22 @@
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
     </row>
-    <row r="42" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
+    <row r="42" spans="1:14" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B42" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="21">
-        <v>22</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -2480,17 +2570,17 @@
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
     </row>
-    <row r="43" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="21" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C43" s="21">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -2502,17 +2592,17 @@
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
     </row>
-    <row r="44" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C44" s="21">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -2524,533 +2614,581 @@
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
     </row>
-    <row r="45" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+    <row r="45" spans="1:14" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="21">
+        <v>33</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="21">
+        <v>44</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+    </row>
+    <row r="47" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+    </row>
+    <row r="50" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+    </row>
+    <row r="51" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" s="54"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+    </row>
+    <row r="52" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
+        <v>11</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54" t="s">
+      <c r="F52" s="24"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+    </row>
+    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
+        <v>22</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="21" t="s">
+      <c r="D53" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+    </row>
+    <row r="54" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
+        <v>33</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+    </row>
+    <row r="55" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
+        <v>44</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-    </row>
-    <row r="46" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-    </row>
-    <row r="47" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-    </row>
-    <row r="48" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-    </row>
-    <row r="49" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="61"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-    </row>
-    <row r="50" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51">
-        <v>11</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-    </row>
-    <row r="51" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51">
-        <v>22</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-    </row>
-    <row r="52" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51">
-        <v>33</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="51" t="s">
+      <c r="I55" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+    </row>
+    <row r="56" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="51" t="s">
+      <c r="D56" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="I52" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-    </row>
-    <row r="53" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51">
-        <v>44</v>
-      </c>
-      <c r="B53" s="51" t="s">
+      <c r="F56" s="24"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+    </row>
+    <row r="57" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+    </row>
+    <row r="58" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26">
+        <v>99</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-    </row>
-    <row r="54" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-    </row>
-    <row r="55" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-    </row>
-    <row r="56" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51">
-        <v>99</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-    </row>
-    <row r="57" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="F58" s="24"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+    </row>
+    <row r="59" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B59" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="51" t="s">
+      <c r="C59" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-    </row>
-    <row r="58" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-    </row>
-    <row r="59" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-    </row>
-    <row r="60" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-    </row>
-    <row r="61" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-    </row>
-    <row r="62" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-    </row>
-    <row r="63" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-    </row>
-    <row r="64" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-    </row>
-    <row r="65" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-    </row>
-    <row r="66" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-    </row>
-    <row r="67" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-    </row>
-    <row r="68" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
+      <c r="E59" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+    </row>
+    <row r="60" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="61" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+    </row>
+    <row r="62" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+    </row>
+    <row r="63" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+    </row>
+    <row r="64" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+    </row>
+    <row r="65" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+    </row>
+    <row r="67" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+    </row>
+    <row r="68" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+    </row>
+    <row r="69" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+    </row>
+    <row r="70" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:XFD48"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="A35:XFD36"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="H17:I17"/>
+  <mergeCells count="33">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A49:XFD50"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="A37:XFD38"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="G18:G27"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A16:XFD17"/>
+    <mergeCell ref="A28:XFD29"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="A15:XFD16"/>
-    <mergeCell ref="A26:XFD27"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D19:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
